--- a/02.Bluepoint import models/Forecast_import_spreadsheet_bluepoint_July_2018.xlsx
+++ b/02.Bluepoint import models/Forecast_import_spreadsheet_bluepoint_July_2018.xlsx
@@ -5,18 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edfengroup.sharepoint.com/sites/EDFRE_DSIN_Outildegestiondesparcs-02-Conception/Shared Documents/02 - Conception/04 - Migration données/02.Bluepoint import models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edfengroup.sharepoint.com/sites/EDFRE_DSIN_Outildegestiondesparcs-02-Conception/Shared Documents/02 - Conception/centralparc/02.Bluepoint import models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_556E590B854700BCC3119EBE6DC4AC6063167CBE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9253203-61F9-42E4-B8D7-C62110E1FAE8}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_556E590B854700BCC3119EBE6DC4AC6063167CBE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BC616F0-FED9-402F-ADD5-68B8101F2189}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="-120" windowWidth="28005" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6180" yWindow="3705" windowWidth="20820" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forecast" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -33,6 +44,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>(MANDATORY)</t>
     </r>
@@ -48,6 +60,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>(MANDATORY)</t>
     </r>
@@ -63,6 +76,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>(MANDATORY)</t>
     </r>
@@ -106,6 +120,7 @@
         <i/>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Generation</t>
     </r>
@@ -114,6 +129,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Options:
@@ -131,6 +147,7 @@
         <i/>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Generation</t>
     </r>
@@ -139,6 +156,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 In kWh/m^2 if "Forecast Type" is </t>
@@ -148,6 +166,7 @@
         <i/>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Irradiation</t>
     </r>
@@ -156,6 +175,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 In % if "Forecast Type" is </t>
@@ -165,6 +185,7 @@
         <i/>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>PR</t>
     </r>
@@ -173,6 +194,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -181,6 +203,7 @@
         <i/>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Availability</t>
     </r>
@@ -189,6 +212,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>, or</t>
     </r>
@@ -197,6 +221,7 @@
         <i/>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> OEM Availability</t>
     </r>
@@ -210,6 +235,7 @@
         <i/>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Generation</t>
     </r>
@@ -218,6 +244,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> or </t>
     </r>
@@ -226,6 +253,7 @@
         <i/>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>PR</t>
     </r>
@@ -312,20 +340,20 @@
     <t>Investment Case</t>
   </si>
   <si>
-    <t>ANPA-METER001</t>
-  </si>
-  <si>
     <t>P90</t>
   </si>
   <si>
     <t>WindGA</t>
+  </si>
+  <si>
+    <t>ANPA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -336,21 +364,25 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -358,11 +390,19 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -525,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -564,6 +604,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,7 +623,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -880,11 +921,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
@@ -903,7 +944,7 @@
     <col min="20" max="20" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,7 +1006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="40.5" customHeight="1">
+    <row r="2" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="15" t="s">
         <v>8</v>
@@ -999,7 +1040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="36.75">
+    <row r="3" spans="1:20" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -1029,7 +1070,7 @@
       </c>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -1091,9 +1132,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>40</v>
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>38</v>
@@ -1102,10 +1143,10 @@
         <v>39</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="F5" s="11">
         <v>10.1</v>
@@ -1144,986 +1185,986 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="R2:S2"/>
@@ -2146,64 +2187,64 @@
       <selection sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>10.1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10.1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7.6</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6.4</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6.3</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6.6</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7.9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9.4</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10.9</v>
       </c>
@@ -2214,15 +2255,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A2D786DD4615AD4C929867322DAD61A4" ma:contentTypeVersion="10" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="8a4b7266a4bb969b443a658d01bb7174">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7bb0b83e-420c-4a8a-8b8d-6814ce313c87" xmlns:ns3="737540b7-7beb-44e9-ac50-e0c53972ff5f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b0685874f74f8bed09a42a659eb7eeb" ns2:_="" ns3:_="">
     <xsd:import namespace="7bb0b83e-420c-4a8a-8b8d-6814ce313c87"/>
@@ -2421,15 +2453,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A797F6A-9013-4993-ABBE-2822972A2E2F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEAB5096-37DB-4215-A763-016204E26396}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2446,4 +2479,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A797F6A-9013-4993-ABBE-2822972A2E2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/02.Bluepoint import models/Forecast_import_spreadsheet_bluepoint_July_2018.xlsx
+++ b/02.Bluepoint import models/Forecast_import_spreadsheet_bluepoint_July_2018.xlsx
@@ -2255,25 +2255,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A2D786DD4615AD4C929867322DAD61A4" ma:contentTypeVersion="10" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="8a4b7266a4bb969b443a658d01bb7174">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7bb0b83e-420c-4a8a-8b8d-6814ce313c87" xmlns:ns3="737540b7-7beb-44e9-ac50-e0c53972ff5f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b0685874f74f8bed09a42a659eb7eeb" ns2:_="" ns3:_="">
-    <xsd:import namespace="7bb0b83e-420c-4a8a-8b8d-6814ce313c87"/>
-    <xsd:import namespace="737540b7-7beb-44e9-ac50-e0c53972ff5f"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B42F7B4AC2B9FB47A2173F853ED4E5E6" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2554e4bc6a999e76a3fe33ccf7d06d9a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eb2bd482-b9c2-4538-9042-cb52d8f965c5" xmlns:ns3="2d0cfb5c-b2c7-4d6c-9108-92e53811e18c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1797702264ec573e89d227db9e0e6766" ns2:_="" ns3:_="">
+    <xsd:import namespace="eb2bd482-b9c2-4538-9042-cb52d8f965c5"/>
+    <xsd:import namespace="2d0cfb5c-b2c7-4d6c-9108-92e53811e18c"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2281,53 +2282,10 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7bb0b83e-420c-4a8a-8b8d-6814ce313c87" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="eb2bd482-b9c2-4538-9042-cb52d8f965c5" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6dbcb339-0d13-475d-8eb4-ac78b8faaaf8" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="737540b7-7beb-44e9-ac50-e0c53972ff5f" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -2346,11 +2304,59 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2d0cfb5c-b2c7-4d6c-9108-92e53811e18c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6dbcb339-0d13-475d-8eb4-ac78b8faaaf8" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="13" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="14" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="18" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2463,22 +2469,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEAB5096-37DB-4215-A763-016204E26396}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7bb0b83e-420c-4a8a-8b8d-6814ce313c87"/>
-    <ds:schemaRef ds:uri="737540b7-7beb-44e9-ac50-e0c53972ff5f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF99938-99D2-42F0-8E80-0F5294E66D9E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
